--- a/fashion/src/main/resources/mesysOnlineStoreDataxlsx.xlsx
+++ b/fashion/src/main/resources/mesysOnlineStoreDataxlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Workspace\fashion\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32602E4-1BB3-473C-B4A6-D21D2873F69D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552877E8-4112-40B7-99C4-981F1D7E3FF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="2" xr2:uid="{58020502-873A-41B8-A054-77838BC4890C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="1" xr2:uid="{58020502-873A-41B8-A054-77838BC4890C}"/>
   </bookViews>
   <sheets>
     <sheet name="SmokeData" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9D976-B2D1-4509-9B7E-CE5C4C76E19E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8AAC36-DD0C-4DD7-A82B-406B8D65090C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
